--- a/Robot Procesamiento TERPEL/Config/Config.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Variable</t>
   </si>
@@ -53,15 +53,6 @@
     <t>Carpeta de descarga de los archivos PDF de la ZFI081</t>
   </si>
   <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Archivos\UiTree.xml</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Archivos\UiTree.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\PDF</t>
-  </si>
-  <si>
     <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Proveedores para exclusión y retenciones.xlsx</t>
   </si>
   <si>
@@ -69,6 +60,24 @@
   </si>
   <si>
     <t>strProveedoresRetenciones</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Archivos\UiTree.xml</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Archivos\UiTree.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\PDF</t>
+  </si>
+  <si>
+    <t>strZMM023</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\ZMM023\ZMM023TERPEL.xlsx</t>
+  </si>
+  <si>
+    <t>Archivo de TERPEL</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -424,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -435,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -443,13 +452,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
